--- a/vbm optional params description.xlsx
+++ b/vbm optional params description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spanta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spanta/Desktop/alloptions_Coinstac_VBM_computation-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA273AC8-F2CF-5F4A-AD64-68A89B698922}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECE55A-B495-3B4C-836E-149988307297}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="460" windowWidth="33100" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02653A44-2EC6-7B4D-BD87-DB1B35EEC98F}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vbm optional params description.xlsx
+++ b/vbm optional params description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spanta/Desktop/alloptions_Coinstac_VBM_computation-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECE55A-B495-3B4C-836E-149988307297}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D756314-871C-B946-9D0D-3C559565A2BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>Range (if applicable)</t>
   </si>
@@ -279,6 +279,42 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>options_mrf_weighting</t>
+  </si>
+  <si>
+    <t>options_cleanup</t>
+  </si>
+  <si>
+    <t>markov random field weighting</t>
+  </si>
+  <si>
+    <t>When tissue class images are written out, a few iterations of a simple Markov Random Field
+(MRF) cleanup procedure are run. This parameter controls the strength of the MRF. Setting the
+value to zero will disable the cleanup.</t>
+  </si>
+  <si>
+    <t>clean up</t>
+  </si>
+  <si>
+    <t>This uses a crude routine for extracting the brain from segmented images.
+It begins by taking the white matter, and eroding it a couple of times to get rid of any odd
+voxels. The algorithm continues on to do conditional dilations for several iterations, where the
+condition is based upon gray or white matter being present.This identified region is then used to
+clean up the grey and white matter partitions. Note that the fluid class will also be cleaned, such
+that aqueous and vitreous humour in the eyeballs, as well as other assorted fluid regions (except
+CSF) will be removed.
+If you find pieces of brain being chopped out in your data, then you may wish to disable or
+tone down the cleanup procedure. Note that the procedure uses a number of assumptions about
+what each tissue class refers to. If a different set of tissue priors are used, then this routine should
+be disabled.0=None,1=light,2=thorough</t>
+  </si>
+  <si>
+    <t>[0,1,2]</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -648,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02653A44-2EC6-7B4D-BD87-DB1B35EEC98F}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,43 +1091,95 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="2" t="b">
+      <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
